--- a/static/ImportDanhSachKhachHang.xlsx
+++ b/static/ImportDanhSachKhachHang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lananh/Documents/tlhw/azfin/azrating23/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lananh/Documents/tlhw/azfin/azrating23/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019023C9-95B4-CB47-9187-8E4FDE3B1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3D46F-4C87-C547-8321-11D24FCB4DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4220" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{EF705CA0-5D62-4D9A-97CA-9AE986BF76C0}"/>
+    <workbookView xWindow="7200" yWindow="5380" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{EF705CA0-5D62-4D9A-97CA-9AE986BF76C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Matkhau</t>
   </si>
@@ -61,9 +61,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>chamevidai@gmail.com</t>
-  </si>
-  <si>
     <t>Lâm Hữu Thắng</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Lâm Hữu Thắng 2</t>
   </si>
   <si>
-    <t>Lâm Hữu Thắng 1</t>
-  </si>
-  <si>
     <t>GSP_CB</t>
   </si>
   <si>
@@ -97,35 +91,23 @@
     <t>thanglhssi@gmail.com</t>
   </si>
   <si>
-    <t>BCCL2025</t>
-  </si>
-  <si>
-    <t>lamminhbaonhi@gmail.com</t>
-  </si>
-  <si>
-    <t>0983840723</t>
-  </si>
-  <si>
-    <t>Lâm Hữu Thắng 3</t>
-  </si>
-  <si>
-    <t>nhgf@ffgmail.com</t>
-  </si>
-  <si>
-    <t>dqqqq5@gl.co1</t>
-  </si>
-  <si>
-    <t>dqqqq6@gl.co1</t>
-  </si>
-  <si>
-    <t>dqqqq7@gl.co1</t>
+    <t>thanganhew@gmail.com</t>
+  </si>
+  <si>
+    <t>Thang Anh EW</t>
+  </si>
+  <si>
+    <t>GSP_1W</t>
+  </si>
+  <si>
+    <t>QTKH100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,11 +157,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>202412</v>
@@ -515,10 +504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839D14E3-82B3-4CB9-A6FD-C07C809809C6}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,53 +548,50 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B7" si="0">MID(A2,1,4) &amp; LEN(A2)</f>
+        <f t="shared" ref="B2:B4" si="0">MID(A2,1,4) &amp; LEN(A2)</f>
         <v>than20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>cham20</v>
+        <v>than20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
         <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -613,163 +599,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>than23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>lamm23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>nhgf16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>dqqq13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" ref="B8:B9" si="1">MID(A8,1,4) &amp; LEN(A8)</f>
-        <v>dqqq13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>dqqq13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9">
         <v>0</v>
       </c>
     </row>
@@ -777,14 +625,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AB06870E-694A-0D44-927E-82F3CD674687}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{2F61860A-D5F0-0147-B6DD-F525B1750489}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{1ABCE3A2-EE50-E042-9D7F-BF33DB809DAA}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{BD889AF3-0E8E-8C48-9D19-019561886323}"/>
-    <hyperlink ref="A8:A9" r:id="rId5" display="dqqqq3@gl.co" xr:uid="{4F849ECF-52B0-524B-AFDE-85D7CFA827D4}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{BA9F21C3-31F8-BD4C-A277-E6E606DA56B3}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{DEFE0AA4-F863-E54C-A577-67C75F65D1B3}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{5FDD32EF-4FAA-C74B-B2B0-361F25B070C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>